--- a/企业名称清单.xlsx
+++ b/企业名称清单.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北京极光动力传媒有限公司</t>
+          <t>朱蕾</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>当贝官网_当贝市场_智能电视应用商店_当贝投影仪_安卓TV ...</t>
+          <t>上海秦贝实业有限公司</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>商业热点 | 亚洲第一云计算总部——杭州阿里云云谷启用_园区 ...</t>
+          <t>阿里云计算有限公司</t>
         </is>
       </c>
     </row>

--- a/企业名称清单.xlsx
+++ b/企业名称清单.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,40 +444,60 @@
           <t>企业全称</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>来源</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>北京极光动力</t>
+          <t>极光动力</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>朱蕾</t>
+          <t>深圳市极光动力科技有限公司</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>普通结果（待确认）</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>上海当贝科技</t>
+          <t>上海明我</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海秦贝实业有限公司</t>
+          <t>mingwork 明我｜致力于打造更简单高效智能的会议体验</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>普通结果</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>杭州阿里云</t>
+          <t>易能数字能源</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>阿里云计算有限公司</t>
+          <t>易能数字</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>普通结果</t>
         </is>
       </c>
     </row>
